--- a/Files/RTS_DATA_COLLECTION_Progress(5L,3) - Copy.xlsx
+++ b/Files/RTS_DATA_COLLECTION_Progress(5L,3) - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTChattSat\miniconda3\envs\testequ\RTSeval\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD0A0F4-6BD6-4C8E-A66D-B5D0F4002AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD85483E-A70C-43B5-91C5-4003887DF85A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3FF60DCE-DA0C-471D-BD6A-A45DAC5DAAC2}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{3FF60DCE-DA0C-471D-BD6A-A45DAC5DAAC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -438,6 +438,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CBBB81-B507-4041-8970-2E56B016078D}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,9 +831,9 @@
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4">
-        <f>96+2*96</f>
-        <v>288</v>
+      <c r="F2" s="22">
+        <f>288+98</f>
+        <v>386</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>16</v>
@@ -870,9 +873,9 @@
       <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4">
-        <f>96*2</f>
-        <v>192</v>
+      <c r="F3" s="22">
+        <f>192+98</f>
+        <v>290</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
@@ -912,15 +915,15 @@
       <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4">
-        <f>2*96</f>
-        <v>192</v>
+      <c r="F4" s="22">
+        <f t="shared" ref="F4:F17" si="2">192+98</f>
+        <v>290</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H17" si="2">76*2</f>
+        <f t="shared" ref="H4:H17" si="3">76*2</f>
         <v>152</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -954,15 +957,15 @@
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4">
-        <f t="shared" ref="F5" si="3">96*2</f>
-        <v>192</v>
+      <c r="F5" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -996,15 +999,15 @@
       <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" ref="F6" si="4">2*96</f>
-        <v>192</v>
+      <c r="F6" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1038,15 +1041,15 @@
       <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" ref="F7" si="5">96*2</f>
-        <v>192</v>
+      <c r="F7" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -1080,15 +1083,15 @@
       <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" ref="F8" si="6">2*96</f>
-        <v>192</v>
+      <c r="F8" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -1122,15 +1125,15 @@
       <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" ref="F9" si="7">96*2</f>
-        <v>192</v>
+      <c r="F9" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -1164,15 +1167,15 @@
       <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" ref="F10" si="8">2*96</f>
-        <v>192</v>
+      <c r="F10" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -1206,15 +1209,15 @@
       <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" ref="F11" si="9">96*2</f>
-        <v>192</v>
+      <c r="F11" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -1248,15 +1251,15 @@
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" ref="F12" si="10">2*96</f>
-        <v>192</v>
+      <c r="F12" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -1290,15 +1293,15 @@
       <c r="E13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" ref="F13" si="11">96*2</f>
-        <v>192</v>
+      <c r="F13" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -1332,15 +1335,15 @@
       <c r="E14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" ref="F14" si="12">2*96</f>
-        <v>192</v>
+      <c r="F14" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -1374,15 +1377,15 @@
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" ref="F15" si="13">96*2</f>
-        <v>192</v>
+      <c r="F15" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -1416,15 +1419,15 @@
       <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" ref="F16" si="14">2*96</f>
-        <v>192</v>
+      <c r="F16" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -1458,15 +1461,15 @@
       <c r="E17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" ref="F17" si="15">96*2</f>
-        <v>192</v>
+      <c r="F17" s="22">
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -1550,7 +1553,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="14">
-        <f t="shared" ref="H19:H33" si="16">2*13</f>
+        <f t="shared" ref="H19:H33" si="4">2*13</f>
         <v>26</v>
       </c>
       <c r="I19" s="14" t="s">
@@ -1592,21 +1595,21 @@
         <v>16</v>
       </c>
       <c r="H20" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="14">
-        <f t="shared" ref="J20:J33" si="17">2*17</f>
+        <f t="shared" ref="J20:J33" si="5">2*17</f>
         <v>34</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L20" s="14">
-        <f t="shared" ref="L20:L33" si="18">44+158</f>
+        <f t="shared" ref="L20:L33" si="6">44+158</f>
         <v>202</v>
       </c>
     </row>
@@ -1627,28 +1630,28 @@
         <v>15</v>
       </c>
       <c r="F21" s="14">
-        <f t="shared" ref="F21:F33" si="19">66+192+42</f>
+        <f t="shared" ref="F21:F33" si="7">66+192+42</f>
         <v>300</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I21" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J21" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K21" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L21" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -1669,28 +1672,28 @@
         <v>15</v>
       </c>
       <c r="F22" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I22" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J22" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K22" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L22" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -1711,28 +1714,28 @@
         <v>15</v>
       </c>
       <c r="F23" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I23" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J23" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L23" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -1753,28 +1756,28 @@
         <v>15</v>
       </c>
       <c r="F24" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J24" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L24" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -1795,28 +1798,28 @@
         <v>15</v>
       </c>
       <c r="F25" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I25" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J25" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K25" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L25" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -1837,28 +1840,28 @@
         <v>15</v>
       </c>
       <c r="F26" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I26" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J26" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K26" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -1879,28 +1882,28 @@
         <v>15</v>
       </c>
       <c r="F27" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I27" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K27" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L27" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -1921,28 +1924,28 @@
         <v>15</v>
       </c>
       <c r="F28" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L28" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -1963,28 +1966,28 @@
         <v>15</v>
       </c>
       <c r="F29" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I29" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K29" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -2005,28 +2008,28 @@
         <v>15</v>
       </c>
       <c r="F30" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I30" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K30" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L30" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -2047,28 +2050,28 @@
         <v>15</v>
       </c>
       <c r="F31" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I31" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L31" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -2089,28 +2092,28 @@
         <v>15</v>
       </c>
       <c r="F32" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I32" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L32" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -2131,28 +2134,28 @@
         <v>15</v>
       </c>
       <c r="F33" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="I33" s="14" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>18</v>
       </c>
       <c r="L33" s="14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
     </row>
@@ -2187,13 +2190,14 @@
         <v>17</v>
       </c>
       <c r="J34" s="10">
-        <v>0</v>
+        <f>96*2</f>
+        <v>192</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L34" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2213,27 +2217,28 @@
         <v>15</v>
       </c>
       <c r="F35" s="10">
-        <f t="shared" ref="F35:F49" si="20">96*2</f>
+        <f t="shared" ref="F35:F49" si="8">96*2</f>
         <v>192</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" ref="H35:H49" si="21">52*2+96*2</f>
+        <f t="shared" ref="H35:H49" si="9">52*2+96*2</f>
         <v>296</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="10">
-        <v>0</v>
+        <f t="shared" ref="J35:J49" si="10">96*2</f>
+        <v>192</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L35" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2253,27 +2258,28 @@
         <v>15</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J36" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L36" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2293,27 +2299,28 @@
         <v>15</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G37" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L37" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2333,27 +2340,28 @@
         <v>15</v>
       </c>
       <c r="F38" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L38" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2373,27 +2381,28 @@
         <v>15</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L39" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2413,27 +2422,28 @@
         <v>15</v>
       </c>
       <c r="F40" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J40" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L40" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2453,27 +2463,28 @@
         <v>15</v>
       </c>
       <c r="F41" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L41" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2493,27 +2504,28 @@
         <v>15</v>
       </c>
       <c r="F42" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J42" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L42" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2533,27 +2545,28 @@
         <v>15</v>
       </c>
       <c r="F43" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J43" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L43" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2573,27 +2586,28 @@
         <v>15</v>
       </c>
       <c r="F44" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L44" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2613,27 +2627,28 @@
         <v>15</v>
       </c>
       <c r="F45" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J45" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L45" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2653,27 +2668,28 @@
         <v>15</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J46" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L46" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2693,27 +2709,28 @@
         <v>15</v>
       </c>
       <c r="F47" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L47" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2733,27 +2750,28 @@
         <v>15</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L48" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2773,27 +2791,28 @@
         <v>15</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="8"/>
         <v>192</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="9"/>
         <v>296</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J49" s="10">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>192</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>18</v>
       </c>
       <c r="L49" s="10">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5844,6 +5863,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MigrationWizIdPermissions xmlns="a88f5291-9f00-4fe6-821b-f3e781277d88" xsi:nil="true"/>
+    <MigrationWizId xmlns="a88f5291-9f00-4fe6-821b-f3e781277d88" xsi:nil="true"/>
+    <MigrationWizIdVersion xmlns="a88f5291-9f00-4fe6-821b-f3e781277d88" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E854DE8B89D4549BF34EFD0E7965341" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7674073da90b0b82c1a8e91bbf63cb01">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a88f5291-9f00-4fe6-821b-f3e781277d88" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27f69ea75eb90e103c8c9f75de378f80" ns3:_="">
     <xsd:import namespace="a88f5291-9f00-4fe6-821b-f3e781277d88"/>
@@ -6051,39 +6089,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MigrationWizIdPermissions xmlns="a88f5291-9f00-4fe6-821b-f3e781277d88" xsi:nil="true"/>
-    <MigrationWizId xmlns="a88f5291-9f00-4fe6-821b-f3e781277d88" xsi:nil="true"/>
-    <MigrationWizIdVersion xmlns="a88f5291-9f00-4fe6-821b-f3e781277d88" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1252E914-57F6-45C9-9C31-71B23F76C344}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2DA136C-B3F9-4BC1-AEE9-FEB7495DD86A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a88f5291-9f00-4fe6-821b-f3e781277d88"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6105,9 +6114,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2DA136C-B3F9-4BC1-AEE9-FEB7495DD86A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1252E914-57F6-45C9-9C31-71B23F76C344}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a88f5291-9f00-4fe6-821b-f3e781277d88"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>